--- a/com.trulia/src/test/resources/TruliaTestData.xlsx
+++ b/com.trulia/src/test/resources/TruliaTestData.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Erdosa\IdeaProjects\Selenium_Framework_Team2\com.trulia\src\test\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D4345C73-D47C-404B-B75D-25827719D464}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2896D5CB-2D48-46B2-B3D8-F5EBB30E000A}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="2" activeTab="2" xr2:uid="{2E8A104B-F2B9-46B0-BA3D-725330091B04}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="2" activeTab="5" xr2:uid="{2E8A104B-F2B9-46B0-BA3D-725330091B04}"/>
   </bookViews>
   <sheets>
     <sheet name="GetPreQualifiedOptions1" sheetId="2" r:id="rId1"/>
@@ -18,6 +18,7 @@
     <sheet name="MortgageQuestions" sheetId="4" r:id="rId3"/>
     <sheet name="LinksTitlesMortgageResources" sheetId="5" r:id="rId4"/>
     <sheet name="HelpBoxOptions" sheetId="6" r:id="rId5"/>
+    <sheet name="MortgageDropdown" sheetId="7" r:id="rId6"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -29,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="36">
   <si>
     <t>Purchase a home</t>
   </si>
@@ -118,7 +119,36 @@
 Alimony or child support
 Monthly debts of your co-borrower (if applicable)
 Rent or mortgage for a second home (if applicable)
-Property maintenance for any rental properties you own</t>
+Property maintenance for any rental properties you own
+Do not include:
+Current rent or mortgage payments that you’ll no longer pay after buying your new home
+Your new monthly mortgage payment
+Credit card balances that you pay off in full each month
+Monthly utilities, groceries, and other costs of living</t>
+  </si>
+  <si>
+    <t>Property taxes and interest rates can vary by location. Enter the ZIP code where you are looking for homes and we will automatically add property taxes and interest rates for your area.</t>
+  </si>
+  <si>
+    <t>Your credit score affects your loan eligibility and your interest rate. Typically, the higher your credit score, the lower your interest rate.</t>
+  </si>
+  <si>
+    <t>Buy</t>
+  </si>
+  <si>
+    <t>Rent</t>
+  </si>
+  <si>
+    <t>Mortgage</t>
+  </si>
+  <si>
+    <t>Saved Homes</t>
+  </si>
+  <si>
+    <t>Saved Searches</t>
+  </si>
+  <si>
+    <t>Sign up or Log in</t>
   </si>
 </sst>
 </file>
@@ -550,7 +580,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1E5DDDD0-3CD3-41AC-A816-644F3F861800}">
   <dimension ref="A1:A5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
@@ -678,10 +708,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{03318EBF-C847-493E-9C0B-7A50BB4E64CF}">
-  <dimension ref="A1:A3"/>
+  <dimension ref="A1:A5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:XFD3"/>
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -699,9 +729,64 @@
         <v>26</v>
       </c>
     </row>
-    <row r="3" spans="1:1" ht="161.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:1" ht="182.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>27</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>28</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D72AB113-D1D6-4504-A3B2-68900DCEFC53}">
+  <dimension ref="A1:A6"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A1:C6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>35</v>
       </c>
     </row>
   </sheetData>
